--- a/ConceptMap-R5-SubscriptionTopic-elements-for-R4.xlsx
+++ b/ConceptMap-R5-SubscriptionTopic-elements-for-R4.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:44.2476814-06:00</t>
+    <t>2026-02-17T14:42:27.5682783-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -219,7 +219,7 @@
     <t>derivedFrom</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubscriptionTopic:derivedFrom</t>
+    <t>http://hl7.org/fhir/StructureDefinition/alternate-canonical</t>
   </si>
   <si>
     <t>SubscriptionTopic.status</t>
